--- a/riskmanagement_project/STOCK_RESULTS/AAPL_major_holders.xlsx
+++ b/riskmanagement_project/STOCK_RESULTS/AAPL_major_holders.xlsx
@@ -447,17 +447,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.61915</v>
+        <v>0.6192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.63215</v>
+        <v>0.6322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6479</v>
+        <v>6480</v>
       </c>
     </row>
   </sheetData>
